--- a/biology/Botanique/Orchis_guerrier/Orchis_guerrier.xlsx
+++ b/biology/Botanique/Orchis_guerrier/Orchis_guerrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchis militaris
 L’Orchis guerrier (Orchis militaris) ou Orchis militaire est une espèce d'orchidées terrestres européennes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante haute de 20 à 50 cm à tige robuste, à feuilles basales plutôt dressées, oblongues, lancéolées et à petites feuilles caulinaires engainantes. L'inflorescence présente des bractées violacées, c'est un épi dense, conique, de 10 à 40 fleurs aux sépales et pétales latéraux rassemblés en casque pointu, de couleur lilas-cendré à l'extérieur, veiné de violet à l'intérieur. Le labelle trilobé est anthropomorphique, au centre clair avec des ponctuations pourpres. Le lobe central est lui-même terminé par 2 lobules (les jambes) séparés par une dent. L'éperon, à l'arrière du labelle, est court et cylindrique, descendant.
 </t>
@@ -543,7 +557,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avril à juin.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de pleine lumière sur substrat calcaire sec à frais : pelouses, prairies non fertilisées, zones broussailleuses, lisières et bois clairs jusqu'à 2 000 m d'altitude.
 </t>
@@ -605,7 +623,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante eurosibérienne, présente dans toute l'Europe, parfois localisée, assez rare surtout dans les régions méditerranéennes.
 </t>
@@ -636,9 +656,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[1].Cette orchidée est protégée dans les régions Centre-Val de Loire, Basse-Normandie, Auvergne.Protégée et très rare en Belgique[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.Cette orchidée est protégée dans les régions Centre-Val de Loire, Basse-Normandie, Auvergne.Protégée et très rare en Belgique.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Hybridations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Orchis militaris × Orchis purpurea (O. ×hybrida BOENNINGH.ex REICHENBACH)
 Orchis militaris × Orchis simia (O. ×beyrichii A. KERNER)
@@ -699,7 +723,9 @@
           <t>Espèces voisines</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Orchis caucasica, orchis du Caucase
 Orchis galilaea, orchis de Galilée
